--- a/Exercicio 2/RFPeformance.xlsx
+++ b/Exercicio 2/RFPeformance.xlsx
@@ -438,13 +438,13 @@
         <v>0.8577821979114868</v>
       </c>
       <c r="F2">
-        <v>0.8674819566960705</v>
+        <v>0.8114832535885167</v>
       </c>
       <c r="G2">
-        <v>0.9564544650751547</v>
+        <v>0.5619615639496355</v>
       </c>
       <c r="H2">
-        <v>0.909798149705635</v>
+        <v>0.6640563821456538</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -461,16 +461,16 @@
         <v>30</v>
       </c>
       <c r="E3">
-        <v>0.8425327366152826</v>
+        <v>0.8426984916293718</v>
       </c>
       <c r="F3">
-        <v>0.878281117696867</v>
+        <v>0.7143950995405819</v>
       </c>
       <c r="G3">
-        <v>0.9171087533156499</v>
+        <v>0.6182902584493042</v>
       </c>
       <c r="H3">
-        <v>0.8972750865051904</v>
+        <v>0.6628774422735346</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -487,16 +487,16 @@
         <v>30</v>
       </c>
       <c r="E4">
-        <v>0.8413724515166584</v>
+        <v>0.8417039615448367</v>
       </c>
       <c r="F4">
-        <v>0.8798722044728434</v>
+        <v>0.7076461769115442</v>
       </c>
       <c r="G4">
-        <v>0.9131299734748011</v>
+        <v>0.6255798542080848</v>
       </c>
       <c r="H4">
-        <v>0.8961926456231695</v>
+        <v>0.6640872317973971</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -513,16 +513,16 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>0.8413724515166584</v>
+        <v>0.8417039615448367</v>
       </c>
       <c r="F5">
-        <v>0.8798722044728434</v>
+        <v>0.7076461769115442</v>
       </c>
       <c r="G5">
-        <v>0.9131299734748011</v>
+        <v>0.6255798542080848</v>
       </c>
       <c r="H5">
-        <v>0.8961926456231695</v>
+        <v>0.6640872317973971</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -539,16 +539,16 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>0.8413724515166584</v>
+        <v>0.8417039615448367</v>
       </c>
       <c r="F6">
-        <v>0.8798722044728434</v>
+        <v>0.7076461769115442</v>
       </c>
       <c r="G6">
-        <v>0.9131299734748011</v>
+        <v>0.6255798542080848</v>
       </c>
       <c r="H6">
-        <v>0.8961926456231695</v>
+        <v>0.6640872317973971</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -568,13 +568,13 @@
         <v>0.8574506878833085</v>
       </c>
       <c r="F7">
-        <v>0.8669871794871795</v>
+        <v>0.8117195004803074</v>
       </c>
       <c r="G7">
-        <v>0.9566755083996463</v>
+        <v>0.559973492379059</v>
       </c>
       <c r="H7">
-        <v>0.9096258932324506</v>
+        <v>0.6627450980392158</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -591,16 +591,16 @@
         <v>30</v>
       </c>
       <c r="E8">
-        <v>0.8408751864743909</v>
+        <v>0.8410409414884801</v>
       </c>
       <c r="F8">
-        <v>0.8775423728813559</v>
+        <v>0.7096036585365854</v>
       </c>
       <c r="G8">
-        <v>0.9155614500442086</v>
+        <v>0.6169648774022531</v>
       </c>
       <c r="H8">
-        <v>0.8961488533102553</v>
+        <v>0.6600496277915632</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -620,13 +620,13 @@
         <v>0.840046411403945</v>
       </c>
       <c r="F9">
-        <v>0.8790202342917998</v>
+        <v>0.703288490284006</v>
       </c>
       <c r="G9">
-        <v>0.9122458001768347</v>
+        <v>0.6235917826375083</v>
       </c>
       <c r="H9">
-        <v>0.8953248725458292</v>
+        <v>0.6610467158412363</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -646,13 +646,13 @@
         <v>0.840046411403945</v>
       </c>
       <c r="F10">
-        <v>0.8790202342917998</v>
+        <v>0.703288490284006</v>
       </c>
       <c r="G10">
-        <v>0.9122458001768347</v>
+        <v>0.6235917826375083</v>
       </c>
       <c r="H10">
-        <v>0.8953248725458292</v>
+        <v>0.6610467158412363</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -672,13 +672,13 @@
         <v>0.840046411403945</v>
       </c>
       <c r="F11">
-        <v>0.8790202342917998</v>
+        <v>0.703288490284006</v>
       </c>
       <c r="G11">
-        <v>0.9122458001768347</v>
+        <v>0.6235917826375083</v>
       </c>
       <c r="H11">
-        <v>0.8953248725458292</v>
+        <v>0.6610467158412363</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -698,13 +698,13 @@
         <v>0.8587767279960219</v>
       </c>
       <c r="F12">
-        <v>0.8677884615384616</v>
+        <v>0.8155619596541787</v>
       </c>
       <c r="G12">
-        <v>0.9575596816976127</v>
+        <v>0.562624254473161</v>
       </c>
       <c r="H12">
-        <v>0.9104665825977301</v>
+        <v>0.6658823529411764</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -724,13 +724,13 @@
         <v>0.8402121664180342</v>
       </c>
       <c r="F13">
-        <v>0.8771186440677966</v>
+        <v>0.7075399847677075</v>
       </c>
       <c r="G13">
-        <v>0.9151193633952255</v>
+        <v>0.6156394963552021</v>
       </c>
       <c r="H13">
-        <v>0.8957161401990481</v>
+        <v>0.6583982990786675</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -750,13 +750,13 @@
         <v>0.8383888612630532</v>
       </c>
       <c r="F14">
-        <v>0.8776335390508618</v>
+        <v>0.7001499250374813</v>
       </c>
       <c r="G14">
-        <v>0.9115826702033598</v>
+        <v>0.6189529489728297</v>
       </c>
       <c r="H14">
-        <v>0.8942860240702591</v>
+        <v>0.657052409426662</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -776,13 +776,13 @@
         <v>0.8383888612630532</v>
       </c>
       <c r="F15">
-        <v>0.8776335390508618</v>
+        <v>0.7001499250374813</v>
       </c>
       <c r="G15">
-        <v>0.9115826702033598</v>
+        <v>0.6189529489728297</v>
       </c>
       <c r="H15">
-        <v>0.8942860240702591</v>
+        <v>0.657052409426662</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -802,13 +802,13 @@
         <v>0.8383888612630532</v>
       </c>
       <c r="F16">
-        <v>0.8776335390508618</v>
+        <v>0.7001499250374813</v>
       </c>
       <c r="G16">
-        <v>0.9115826702033598</v>
+        <v>0.6189529489728297</v>
       </c>
       <c r="H16">
-        <v>0.8942860240702591</v>
+        <v>0.657052409426662</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -828,13 +828,13 @@
         <v>0.8587767279960219</v>
       </c>
       <c r="F17">
-        <v>0.8677884615384616</v>
+        <v>0.8155619596541787</v>
       </c>
       <c r="G17">
-        <v>0.9575596816976127</v>
+        <v>0.562624254473161</v>
       </c>
       <c r="H17">
-        <v>0.9104665825977301</v>
+        <v>0.6658823529411764</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -854,13 +854,13 @@
         <v>0.8405436764462125</v>
       </c>
       <c r="F18">
-        <v>0.8773305084745763</v>
+        <v>0.7083015993907082</v>
       </c>
       <c r="G18">
-        <v>0.9153404067197171</v>
+        <v>0.6163021868787276</v>
       </c>
       <c r="H18">
-        <v>0.8959324967546517</v>
+        <v>0.659107016300496</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -880,13 +880,13 @@
         <v>0.8387203712912316</v>
       </c>
       <c r="F19">
-        <v>0.8776855988087641</v>
+        <v>0.7012012012012012</v>
       </c>
       <c r="G19">
-        <v>0.9120247568523431</v>
+        <v>0.6189529489728297</v>
       </c>
       <c r="H19">
-        <v>0.8945257452574525</v>
+        <v>0.6575149595212954</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -906,13 +906,13 @@
         <v>0.8387203712912316</v>
       </c>
       <c r="F20">
-        <v>0.8776855988087641</v>
+        <v>0.7012012012012012</v>
       </c>
       <c r="G20">
-        <v>0.9120247568523431</v>
+        <v>0.6189529489728297</v>
       </c>
       <c r="H20">
-        <v>0.8945257452574525</v>
+        <v>0.6575149595212954</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -932,13 +932,13 @@
         <v>0.8387203712912316</v>
       </c>
       <c r="F21">
-        <v>0.8776855988087641</v>
+        <v>0.7012012012012012</v>
       </c>
       <c r="G21">
-        <v>0.9120247568523431</v>
+        <v>0.6189529489728297</v>
       </c>
       <c r="H21">
-        <v>0.8945257452574525</v>
+        <v>0.6575149595212954</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -958,13 +958,13 @@
         <v>0.8586109729819327</v>
       </c>
       <c r="F22">
-        <v>0.8674674674674675</v>
+        <v>0.8159922928709056</v>
       </c>
       <c r="G22">
-        <v>0.9577807250221043</v>
+        <v>0.56129887342611</v>
       </c>
       <c r="H22">
-        <v>0.9103897468221452</v>
+        <v>0.6650961915979583</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -984,13 +984,13 @@
         <v>0.8410409414884801</v>
       </c>
       <c r="F23">
-        <v>0.8780487804878049</v>
+        <v>0.708649468892261</v>
       </c>
       <c r="G23">
-        <v>0.9151193633952255</v>
+        <v>0.6189529489728297</v>
       </c>
       <c r="H23">
-        <v>0.8962008875419417</v>
+        <v>0.6607711354793067</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1010,13 +1010,13 @@
         <v>0.8393833913475882</v>
       </c>
       <c r="F24">
-        <v>0.8779502445247714</v>
+        <v>0.7030075187969925</v>
       </c>
       <c r="G24">
-        <v>0.9126878868258178</v>
+        <v>0.6196156394963552</v>
       </c>
       <c r="H24">
-        <v>0.89498211769806</v>
+        <v>0.6586826347305389</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1036,13 +1036,13 @@
         <v>0.8393833913475882</v>
       </c>
       <c r="F25">
-        <v>0.8779502445247714</v>
+        <v>0.7030075187969925</v>
       </c>
       <c r="G25">
-        <v>0.9126878868258178</v>
+        <v>0.6196156394963552</v>
       </c>
       <c r="H25">
-        <v>0.89498211769806</v>
+        <v>0.6586826347305389</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1062,13 +1062,13 @@
         <v>0.8393833913475882</v>
       </c>
       <c r="F26">
-        <v>0.8779502445247714</v>
+        <v>0.7030075187969925</v>
       </c>
       <c r="G26">
-        <v>0.9126878868258178</v>
+        <v>0.6196156394963552</v>
       </c>
       <c r="H26">
-        <v>0.89498211769806</v>
+        <v>0.6586826347305389</v>
       </c>
     </row>
   </sheetData>
